--- a/data/trans_dic/P79A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P79A_R-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005303014583080415</v>
+        <v>0.005386482234681629</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00882209091578851</v>
+        <v>0.008391763779588227</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00853375965537273</v>
+        <v>0.00833207169666886</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02359462002841834</v>
+        <v>0.02344060919925231</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02806226973680799</v>
+        <v>0.02689399237444999</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02044194552301853</v>
+        <v>0.02055571090653053</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.02165204290386231</v>
+        <v>0.02165204290386232</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.01827041077267233</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01224226591712322</v>
+        <v>0.01139058485827017</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0115168810480529</v>
+        <v>0.01118387605375735</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01357715262294686</v>
+        <v>0.01327188725866283</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03654354575485506</v>
+        <v>0.03617897442663549</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03426907472540343</v>
+        <v>0.03137601645742343</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02952504609288419</v>
+        <v>0.02830187558681275</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02205531394241397</v>
+        <v>0.02281459614098462</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01063486179997445</v>
+        <v>0.01041052876550081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01832638086687118</v>
+        <v>0.01870339797110464</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05938962313401348</v>
+        <v>0.06299654695473862</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03199340630269994</v>
+        <v>0.03225173270189108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03969191369114088</v>
+        <v>0.04071243340642376</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01764788921990087</v>
+        <v>0.01710910910923739</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02389041815172822</v>
+        <v>0.02447471741997942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02340316467124051</v>
+        <v>0.02329551799856099</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03974144703218281</v>
+        <v>0.03744119501889944</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04669487249104436</v>
+        <v>0.04637809847228971</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03957018496534053</v>
+        <v>0.03778878564471912</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.02255296621645562</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02333529980206941</v>
+        <v>0.0233352998020694</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01849238473059382</v>
+        <v>0.01840291412788386</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01808032305205098</v>
+        <v>0.01803210890332891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01933955115180768</v>
+        <v>0.01954293183083654</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03123429551518168</v>
+        <v>0.03148034233396814</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02847806343617626</v>
+        <v>0.02842404184830219</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02784963182532533</v>
+        <v>0.02770982670861228</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3663</v>
+        <v>3720</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6477</v>
+        <v>6161</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12160</v>
+        <v>11872</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16297</v>
+        <v>16191</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20603</v>
+        <v>19745</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29128</v>
+        <v>29290</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12841</v>
+        <v>11948</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12340</v>
+        <v>11983</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28789</v>
+        <v>28142</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38331</v>
+        <v>37949</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36718</v>
+        <v>33619</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>62605</v>
+        <v>60011</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17712</v>
+        <v>18322</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8638</v>
+        <v>8456</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29603</v>
+        <v>30212</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47694</v>
+        <v>50591</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25987</v>
+        <v>26197</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>64116</v>
+        <v>65764</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17473</v>
+        <v>16939</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26734</v>
+        <v>27388</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49360</v>
+        <v>49133</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39346</v>
+        <v>37069</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>52253</v>
+        <v>51899</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83458</v>
+        <v>79700</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>65329</v>
+        <v>65013</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>67565</v>
+        <v>67385</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>140593</v>
+        <v>142072</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>110343</v>
+        <v>111213</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>106421</v>
+        <v>106219</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>202459</v>
+        <v>201443</v>
       </c>
     </row>
     <row r="24">
